--- a/src/Config/ObjectRepository.xlsx
+++ b/src/Config/ObjectRepository.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3211" uniqueCount="1110">
   <si>
     <t>Section</t>
   </si>
@@ -3307,6 +3307,48 @@
   </si>
   <si>
     <t>lblverbalPerc</t>
+  </si>
+  <si>
+    <t>FPTOnsite</t>
+  </si>
+  <si>
+    <t>loginForm:name</t>
+  </si>
+  <si>
+    <t>loginForm:password</t>
+  </si>
+  <si>
+    <t>KPT_LoginID_Text</t>
+  </si>
+  <si>
+    <t>KPT_Pwd_Text</t>
+  </si>
+  <si>
+    <t>KPT_Login_Button</t>
+  </si>
+  <si>
+    <t>KPT</t>
+  </si>
+  <si>
+    <t>//ul[ends-with(@class,"</t>
+  </si>
+  <si>
+    <t>FPT_Product_Go_Button_begin</t>
+  </si>
+  <si>
+    <t>FPT_Product_Go_Button_end</t>
+  </si>
+  <si>
+    <t>")]//input[4]</t>
+  </si>
+  <si>
+    <t>KPT/FPT</t>
+  </si>
+  <si>
+    <t>KPT/FPT Main page</t>
+  </si>
+  <si>
+    <t>loginForm:j_id74</t>
   </si>
 </sst>
 </file>
@@ -3399,7 +3441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3423,6 +3465,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3733,10 +3776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M441"/>
+  <dimension ref="A1:M446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="E441" sqref="E441"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="G444" sqref="G444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -13585,6 +13628,9 @@
       </c>
     </row>
     <row r="399" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A399" s="3" t="s">
+        <v>958</v>
+      </c>
       <c r="B399" s="3" t="s">
         <v>958</v>
       </c>
@@ -13602,6 +13648,9 @@
       </c>
     </row>
     <row r="400" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A400" s="3" t="s">
+        <v>958</v>
+      </c>
       <c r="B400" s="3" t="s">
         <v>960</v>
       </c>
@@ -13622,7 +13671,9 @@
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A401" s="3"/>
+      <c r="A401" s="3" t="s">
+        <v>958</v>
+      </c>
       <c r="B401" s="3" t="s">
         <v>960</v>
       </c>
@@ -13647,7 +13698,9 @@
       <c r="M401" s="3"/>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A402" s="3"/>
+      <c r="A402" s="3" t="s">
+        <v>958</v>
+      </c>
       <c r="B402" s="3" t="s">
         <v>960</v>
       </c>
@@ -13674,7 +13727,9 @@
       <c r="M402" s="3"/>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A403" s="3"/>
+      <c r="A403" s="3" t="s">
+        <v>958</v>
+      </c>
       <c r="B403" s="3" t="s">
         <v>964</v>
       </c>
@@ -13699,7 +13754,9 @@
       <c r="M403" s="3"/>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A404" s="3"/>
+      <c r="A404" s="3" t="s">
+        <v>958</v>
+      </c>
       <c r="B404" s="3" t="s">
         <v>964</v>
       </c>
@@ -13724,7 +13781,9 @@
       <c r="M404" s="3"/>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A405" s="3"/>
+      <c r="A405" s="3" t="s">
+        <v>958</v>
+      </c>
       <c r="B405" s="3" t="s">
         <v>964</v>
       </c>
@@ -13749,7 +13808,9 @@
       <c r="M405" s="3"/>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A406" s="3"/>
+      <c r="A406" s="3" t="s">
+        <v>958</v>
+      </c>
       <c r="B406" s="3" t="s">
         <v>964</v>
       </c>
@@ -13774,6 +13835,9 @@
       <c r="M406" s="3"/>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A407" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B407" s="1" t="s">
         <v>1022</v>
       </c>
@@ -13791,6 +13855,9 @@
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A408" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B408" s="1" t="s">
         <v>1022</v>
       </c>
@@ -13808,6 +13875,9 @@
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A409" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B409" s="1" t="s">
         <v>1022</v>
       </c>
@@ -13825,6 +13895,9 @@
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A410" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B410" s="1" t="s">
         <v>1022</v>
       </c>
@@ -13842,6 +13915,9 @@
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A411" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B411" s="1" t="s">
         <v>1022</v>
       </c>
@@ -13859,6 +13935,9 @@
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A412" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B412" s="1" t="s">
         <v>1022</v>
       </c>
@@ -13876,6 +13955,9 @@
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A413" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B413" s="1" t="s">
         <v>1022</v>
       </c>
@@ -13893,6 +13975,9 @@
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A414" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B414" s="1" t="s">
         <v>1022</v>
       </c>
@@ -13910,6 +13995,9 @@
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A415" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B415" s="1" t="s">
         <v>1043</v>
       </c>
@@ -13927,6 +14015,9 @@
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A416" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B416" s="1" t="s">
         <v>1043</v>
       </c>
@@ -13943,7 +14034,10 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A417" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B417" s="1" t="s">
         <v>1043</v>
       </c>
@@ -13960,7 +14054,10 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A418" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B418" s="1" t="s">
         <v>1043</v>
       </c>
@@ -13977,7 +14074,10 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A419" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B419" s="1" t="s">
         <v>1043</v>
       </c>
@@ -13994,7 +14094,10 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A420" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B420" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14011,7 +14114,10 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A421" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B421" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14028,7 +14134,10 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A422" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B422" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14045,7 +14154,10 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A423" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B423" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14062,7 +14174,10 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A424" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B424" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14079,7 +14194,10 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A425" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B425" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14096,7 +14214,10 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A426" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B426" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14113,7 +14234,10 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A427" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B427" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14130,7 +14254,10 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A428" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B428" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14147,7 +14274,10 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A429" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B429" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14164,7 +14294,10 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A430" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B430" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14181,7 +14314,10 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A431" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B431" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14198,7 +14334,10 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A432" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B432" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14215,7 +14354,10 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A433" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B433" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14232,7 +14374,10 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A434" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B434" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14249,7 +14394,10 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A435" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B435" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14266,7 +14414,10 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="436" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A436" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B436" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14283,7 +14434,10 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="437" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B437" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14300,7 +14454,10 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="438" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A438" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B438" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14317,7 +14474,10 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="439" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A439" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B439" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14334,7 +14494,10 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="440" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A440" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B440" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14351,7 +14514,10 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A441" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="B441" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14366,6 +14532,97 @@
       </c>
       <c r="F441" s="1" t="s">
         <v>1095</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A442" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D442" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A443" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D443" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A444" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D444" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A445" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D445" s="11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A446" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D446" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F446" s="17" t="s">
+        <v>1106</v>
       </c>
     </row>
   </sheetData>

--- a/src/Config/ObjectRepository.xlsx
+++ b/src/Config/ObjectRepository.xlsx
@@ -3339,9 +3339,6 @@
     <t>FPT_Product_Go_Button_end</t>
   </si>
   <si>
-    <t>")]//input[4]</t>
-  </si>
-  <si>
     <t>KPT/FPT</t>
   </si>
   <si>
@@ -3349,6 +3346,9 @@
   </si>
   <si>
     <t>loginForm:j_id74</t>
+  </si>
+  <si>
+    <t>")]//form/input[4]</t>
   </si>
 </sst>
 </file>
@@ -3779,7 +3779,7 @@
   <dimension ref="A1:M446"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="G444" sqref="G444"/>
+      <selection activeCell="F446" sqref="F446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -14582,15 +14582,15 @@
         <v>1026</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B445" s="1" t="s">
         <v>1107</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>1108</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>73</v>
@@ -14607,10 +14607,10 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B446" s="1" t="s">
         <v>1107</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>1108</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>73</v>
@@ -14622,7 +14622,7 @@
         <v>6</v>
       </c>
       <c r="F446" s="17" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>

--- a/src/Config/ObjectRepository.xlsx
+++ b/src/Config/ObjectRepository.xlsx
@@ -3330,9 +3330,6 @@
     <t>KPT</t>
   </si>
   <si>
-    <t>//ul[ends-with(@class,"</t>
-  </si>
-  <si>
     <t>FPT_Product_Go_Button_begin</t>
   </si>
   <si>
@@ -3348,7 +3345,10 @@
     <t>loginForm:j_id74</t>
   </si>
   <si>
-    <t>")]//form/input[4]</t>
+    <t>//ul[contains(@class,</t>
+  </si>
+  <si>
+    <t>)]//input[4]</t>
   </si>
 </sst>
 </file>
@@ -3779,7 +3779,7 @@
   <dimension ref="A1:M446"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="F446" sqref="F446"/>
+      <selection activeCell="G446" sqref="G446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -14582,41 +14582,41 @@
         <v>1026</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B445" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="B445" s="1" t="s">
-        <v>1107</v>
-      </c>
       <c r="C445" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D445" s="11" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E445" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B446" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="B446" s="1" t="s">
-        <v>1107</v>
-      </c>
       <c r="C446" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D446" s="11" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E446" s="1" t="s">
         <v>6</v>

--- a/src/Config/ObjectRepository.xlsx
+++ b/src/Config/ObjectRepository.xlsx
@@ -2868,9 +2868,6 @@
     <t>GMAT2013</t>
   </si>
   <si>
-    <t>3murali@</t>
-  </si>
-  <si>
     <t>TstPg_Footer_NextButton_VerbalReview</t>
   </si>
   <si>
@@ -3349,6 +3346,9 @@
   </si>
   <si>
     <t>)]//input[4]</t>
+  </si>
+  <si>
+    <t>4murali@</t>
   </si>
 </sst>
 </file>
@@ -3461,11 +3461,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3778,8 +3778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="G446" sqref="G446"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3906,8 +3906,8 @@
       <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>949</v>
+      <c r="G4" s="17" t="s">
+        <v>1109</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -4577,10 +4577,10 @@
         <v>6</v>
       </c>
       <c r="F28" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>1090</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>1091</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>49</v>
@@ -4762,16 +4762,16 @@
         <v>73</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F34" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>985</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>986</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>49</v>
@@ -4797,16 +4797,16 @@
         <v>73</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>49</v>
@@ -4832,16 +4832,16 @@
         <v>73</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>49</v>
@@ -4867,13 +4867,13 @@
         <v>73</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
@@ -4896,13 +4896,13 @@
         <v>73</v>
       </c>
       <c r="D38" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>1018</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>1019</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -5111,13 +5111,13 @@
         <v>50</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>53</v>
@@ -5173,7 +5173,7 @@
         <v>50</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>17</v>
@@ -5182,7 +5182,7 @@
         <v>329</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>49</v>
@@ -5206,16 +5206,16 @@
         <v>50</v>
       </c>
       <c r="D48" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>1009</v>
-      </c>
       <c r="G48" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>49</v>
@@ -5239,16 +5239,16 @@
         <v>50</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>49</v>
@@ -5272,16 +5272,16 @@
         <v>50</v>
       </c>
       <c r="D50" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>1021</v>
-      </c>
       <c r="G50" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>49</v>
@@ -5868,13 +5868,13 @@
         <v>50</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G71" s="12" t="s">
         <v>908</v>
@@ -5990,7 +5990,7 @@
         <v>17</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>909</v>
@@ -6158,7 +6158,7 @@
         <v>50</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>6</v>
@@ -6187,7 +6187,7 @@
         <v>50</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>6</v>
@@ -6216,7 +6216,7 @@
         <v>50</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>6</v>
@@ -6225,7 +6225,7 @@
         <v>178</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>49</v>
@@ -6249,7 +6249,7 @@
         <v>50</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>6</v>
@@ -6258,7 +6258,7 @@
         <v>305</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>49</v>
@@ -6282,16 +6282,16 @@
         <v>73</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F85" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>988</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="86" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -6305,13 +6305,13 @@
         <v>73</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>49</v>
@@ -6331,13 +6331,13 @@
         <v>73</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>49</v>
@@ -6357,13 +6357,13 @@
         <v>73</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>49</v>
@@ -6383,13 +6383,13 @@
         <v>73</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>49</v>
@@ -6409,13 +6409,13 @@
         <v>73</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>49</v>
@@ -6435,13 +6435,13 @@
         <v>73</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>49</v>
@@ -6461,13 +6461,13 @@
         <v>73</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>49</v>
@@ -6487,13 +6487,13 @@
         <v>73</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="94" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -6507,13 +6507,13 @@
         <v>73</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="95" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7652,7 +7652,7 @@
         <v>17</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>302</v>
@@ -9980,7 +9980,7 @@
         <v>50</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>17</v>
@@ -11624,7 +11624,7 @@
       <c r="F305" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="G305" s="16" t="s">
+      <c r="G305" s="15" t="s">
         <v>808</v>
       </c>
     </row>
@@ -13629,65 +13629,65 @@
     </row>
     <row r="399" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D399" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="B399" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D399" s="3" t="s">
-        <v>959</v>
-      </c>
       <c r="E399" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F399" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="400" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B400" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D400" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="C400" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D400" s="3" t="s">
-        <v>961</v>
-      </c>
       <c r="E400" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H400" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
@@ -13699,26 +13699,26 @@
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E402" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G402" s="3"/>
       <c r="H402" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
@@ -13728,22 +13728,22 @@
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B403" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D403" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="C403" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D403" s="3" t="s">
-        <v>965</v>
-      </c>
       <c r="E403" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
@@ -13755,22 +13755,22 @@
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E404" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F404" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
@@ -13782,22 +13782,22 @@
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E405" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F405" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
@@ -13809,22 +13809,22 @@
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E406" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F406" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
@@ -13836,793 +13836,793 @@
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B407" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C407" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C407" s="1" t="s">
+      <c r="D407" s="11" t="s">
         <v>1023</v>
       </c>
-      <c r="D407" s="11" t="s">
+      <c r="E407" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F407" s="1" t="s">
         <v>1024</v>
-      </c>
-      <c r="E407" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F407" s="1" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B408" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C408" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C408" s="1" t="s">
-        <v>1023</v>
-      </c>
       <c r="D408" s="11" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F408" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="E408" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F408" s="1" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B409" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C409" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C409" s="1" t="s">
-        <v>1023</v>
-      </c>
       <c r="D409" s="11" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F409" s="1" t="s">
         <v>1029</v>
-      </c>
-      <c r="E409" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F409" s="1" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B410" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C410" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C410" s="1" t="s">
-        <v>1023</v>
-      </c>
       <c r="D410" s="11" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F410" s="1" t="s">
         <v>1031</v>
-      </c>
-      <c r="E410" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F410" s="1" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B411" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C411" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C411" s="1" t="s">
-        <v>1023</v>
-      </c>
       <c r="D411" s="11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B412" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C412" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C412" s="1" t="s">
-        <v>1023</v>
-      </c>
       <c r="D412" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B413" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C413" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C413" s="1" t="s">
-        <v>1023</v>
-      </c>
       <c r="D413" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B414" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C414" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C414" s="1" t="s">
-        <v>1023</v>
-      </c>
       <c r="D414" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D415" s="11" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D416" s="11" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D417" s="11" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D418" s="11" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D419" s="11" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D420" s="11" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D421" s="11" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D422" s="11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D423" s="11" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D424" s="11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D425" s="11" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D426" s="11" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D427" s="11" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D428" s="11" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D429" s="11" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D430" s="11" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D431" s="11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D432" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D433" s="11" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D434" s="11" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D435" s="11" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D436" s="11" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D437" s="11" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D438" s="11" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D439" s="11" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D440" s="11" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D441" s="11" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D442" s="11" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D443" s="11" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D444" s="11" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B445" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="B445" s="1" t="s">
-        <v>1106</v>
-      </c>
       <c r="C445" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D445" s="11" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E445" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B446" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="B446" s="1" t="s">
-        <v>1106</v>
-      </c>
       <c r="C446" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D446" s="11" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E446" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F446" s="17" t="s">
-        <v>1109</v>
+      <c r="F446" s="16" t="s">
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
